--- a/docs/Milestone 3/M3 Burndown Chart.xlsx
+++ b/docs/Milestone 3/M3 Burndown Chart.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjagu\Documents\GitHub\team-project-group-p07-07\docs\Milestone 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjagu\Documents\GitHub\team-project-group-p07-07\docs\Milestone 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCEE9C8-544A-435A-8927-849F367BFA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C283803-E64B-4341-9B4B-7AB784C74D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{599E0083-BA29-43DE-BF11-EE87BCF98BA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{599E0083-BA29-43DE-BF11-EE87BCF98BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>User Story</t>
   </si>
@@ -220,11 +221,132 @@
       <t>[Total: 13]</t>
     </r>
   </si>
+  <si>
+    <t>PBI1</t>
+  </si>
+  <si>
+    <t>PBI2</t>
+  </si>
+  <si>
+    <t>PBI3</t>
+  </si>
+  <si>
+    <t>PBI4</t>
+  </si>
+  <si>
+    <t>PBI5</t>
+  </si>
+  <si>
+    <t>PBI6</t>
+  </si>
+  <si>
+    <t>PBI7</t>
+  </si>
+  <si>
+    <t>PBI8</t>
+  </si>
+  <si>
+    <t>PBI9</t>
+  </si>
+  <si>
+    <t>Write user stories for remaining Sprint</t>
+  </si>
+  <si>
+    <t>Maintain Scrum Meetings and Documentation</t>
+  </si>
+  <si>
+    <t>Update Product Backlog</t>
+  </si>
+  <si>
+    <t>Prioritize Backlog based on product owner meeting</t>
+  </si>
+  <si>
+    <t>Write test cases and definition of done for each feature</t>
+  </si>
+  <si>
+    <t>Add validation tests and document test results</t>
+  </si>
+  <si>
+    <t>Implement enhancement feature</t>
+  </si>
+  <si>
+    <t>Refactor code and rerun all tests</t>
+  </si>
+  <si>
+    <t>Add continuous deployment</t>
+  </si>
+  <si>
+    <t>PBI 13</t>
+  </si>
+  <si>
+    <t>PBI 14</t>
+  </si>
+  <si>
+    <t>PBI 15</t>
+  </si>
+  <si>
+    <t>Personal details (profile)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Completed: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PBI 4 [1] 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Blocked: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>PBI 10-15 [13]</t>
+    </r>
+  </si>
+  <si>
+    <t>PBI1, PBI 3 [5]</t>
+  </si>
+  <si>
+    <t>PBI 5 [5]</t>
+  </si>
+  <si>
+    <t>Ideal burndown [1]</t>
+  </si>
+  <si>
+    <t>Ideal burndown [2]</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>PBI2, PBI 6, PBI 8 [21]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +373,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,66 +481,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,6 +828,573 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-50CA-4247-AB65-C7E40DDFA807}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1987451408"/>
+        <c:axId val="1983166144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1987451408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1983166144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1983166144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>User</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Story Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1987451408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Classic Burndown Chart - Sprint 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$J$4:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.470769200000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.681538400000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.892307600000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.103076800000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.313846000000012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.524615200000014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.735384400000015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.946153600000015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.156922800000014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3676920000000141</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5784612000000138</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E326-4579-89E2-0354F9A10008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remaining effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$K$4:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E326-4579-89E2-0354F9A10008}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1045,7 +1753,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1586,6 +2850,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488D4894-BADD-4BBB-926C-15F505063A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1901,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C3E9F-CB39-47FC-ABE5-52DCF7B1BFF9}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,18 +3225,18 @@
   <sheetData>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="H2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1940,19 +3247,19 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1969,19 +3276,19 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <v>31</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <v>31</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1994,20 +3301,20 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="12">
         <v>1</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="13">
         <f>J4-2.07</f>
         <v>28.93</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="12">
         <v>31</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2023,17 +3330,17 @@
         <v>2</v>
       </c>
       <c r="H6" s="21"/>
-      <c r="I6" s="19">
+      <c r="I6" s="12">
         <v>2</v>
       </c>
-      <c r="J6" s="20">
-        <f t="shared" ref="J6:J19" si="0">J5-2.07</f>
+      <c r="J6" s="13">
+        <f t="shared" ref="J6:J18" si="0">J5-2.07</f>
         <v>26.86</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="12">
         <v>31</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2049,17 +3356,17 @@
         <v>3</v>
       </c>
       <c r="H7" s="21"/>
-      <c r="I7" s="19">
+      <c r="I7" s="12">
         <v>3</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>24.79</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="12">
         <v>31</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2075,17 +3382,17 @@
         <v>1</v>
       </c>
       <c r="H8" s="21"/>
-      <c r="I8" s="19">
+      <c r="I8" s="12">
         <v>4</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>22.72</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="12">
         <v>31</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2101,44 +3408,44 @@
         <v>1</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="19">
+      <c r="I9" s="12">
         <v>5</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>20.65</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="12">
         <v>31</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1">
         <f>SUM(D4:D9)</f>
         <v>13</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="10">
         <v>6</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="11">
         <f t="shared" si="0"/>
         <v>18.579999999999998</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="10">
         <v>31</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2155,22 +3462,22 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14">
+      <c r="H11" s="24"/>
+      <c r="I11" s="10">
         <v>7</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="11">
         <f t="shared" si="0"/>
         <v>16.509999999999998</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="10">
         <v>31</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -2181,19 +3488,19 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="14">
+      <c r="H12" s="24"/>
+      <c r="I12" s="10">
         <v>8</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="11">
         <f t="shared" si="0"/>
         <v>14.439999999999998</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="10">
         <f>31-13</f>
         <v>18</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2208,19 +3515,19 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="14">
+      <c r="H13" s="24"/>
+      <c r="I13" s="10">
         <v>9</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="11">
         <f t="shared" si="0"/>
         <v>12.369999999999997</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="10">
         <f t="shared" ref="K13:K17" si="1">31-13</f>
         <v>18</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2235,19 +3542,19 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="14">
+      <c r="H14" s="25"/>
+      <c r="I14" s="10">
         <v>10</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="11">
         <f t="shared" si="0"/>
         <v>10.299999999999997</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2262,21 +3569,21 @@
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="15">
         <v>11</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="16">
         <f t="shared" si="0"/>
         <v>8.2299999999999969</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="15">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2292,25 +3599,25 @@
         <v>3</v>
       </c>
       <c r="H16" s="27"/>
-      <c r="I16" s="25">
+      <c r="I16" s="15">
         <v>12</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="16">
         <f t="shared" si="0"/>
         <v>6.1599999999999966</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="15">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="1">
@@ -2318,25 +3625,25 @@
         <v>18</v>
       </c>
       <c r="H17" s="27"/>
-      <c r="I17" s="25">
+      <c r="I17" s="15">
         <v>13</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="16">
         <f t="shared" si="0"/>
         <v>4.0899999999999963</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="15">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1">
@@ -2344,18 +3651,18 @@
         <v>31</v>
       </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="25">
+      <c r="I18" s="15">
         <v>14</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="16">
         <f t="shared" si="0"/>
         <v>2.0199999999999965</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="15">
         <f>K17-SUM(D11:D12)</f>
         <v>13</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2364,50 +3671,571 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="25">
+      <c r="H19" s="28"/>
+      <c r="I19" s="15">
         <v>15</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="16">
         <v>0</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="15">
         <f>K18-SUM(D13:D16)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <f>D18/15</f>
         <v>2.0666666666666669</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H21" s="3"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="H15:H19"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7353570F-C033-40B8-938D-BA45B335540D}">
+  <dimension ref="B2:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.88671875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="32">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="H3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="32">
+        <v>8</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="H4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>58</v>
+      </c>
+      <c r="K4" s="9">
+        <v>58</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="32">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="H5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <f>J4-3.87</f>
+        <v>54.13</v>
+      </c>
+      <c r="K5" s="12">
+        <f>K4-SUM(D3,D5)</f>
+        <v>53</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="12">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13">
+        <f>J5-3.87</f>
+        <v>50.260000000000005</v>
+      </c>
+      <c r="K6" s="12">
+        <f>K5-D7</f>
+        <v>48</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="32">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="12">
+        <v>3</v>
+      </c>
+      <c r="J7" s="13">
+        <f>J6-14</f>
+        <v>36.260000000000005</v>
+      </c>
+      <c r="K7" s="12">
+        <f>K6-SUM(D6,D21)</f>
+        <v>34</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="32">
+        <v>5</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="12">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13">
+        <f>J7-2.7892308</f>
+        <v>33.470769200000007</v>
+      </c>
+      <c r="K8" s="12">
+        <v>34</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="32">
+        <v>5</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="12">
+        <v>5</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" ref="J9:J19" si="0">J8-2.7892308</f>
+        <v>30.681538400000008</v>
+      </c>
+      <c r="K9" s="12">
+        <v>34</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="32">
+        <v>8</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="H10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>27.892307600000009</v>
+      </c>
+      <c r="K10" s="10">
+        <v>34</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="32">
+        <v>8</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="10">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>25.103076800000011</v>
+      </c>
+      <c r="K11" s="10">
+        <v>34</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="6"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="10">
+        <v>8</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>22.313846000000012</v>
+      </c>
+      <c r="K12" s="10">
+        <v>34</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="24"/>
+      <c r="I13" s="10">
+        <v>9</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>19.524615200000014</v>
+      </c>
+      <c r="K13" s="10">
+        <v>34</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="10">
+        <v>10</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>16.735384400000015</v>
+      </c>
+      <c r="K14" s="10">
+        <v>34</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="15">
+        <v>11</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="0"/>
+        <v>13.946153600000015</v>
+      </c>
+      <c r="K15" s="15">
+        <v>34</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="15">
+        <v>12</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="0"/>
+        <v>11.156922800000014</v>
+      </c>
+      <c r="K16" s="15">
+        <v>34</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="15">
+        <v>13</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="0"/>
+        <v>8.3676920000000141</v>
+      </c>
+      <c r="K17" s="15">
+        <v>34</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="15">
+        <v>14</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="0"/>
+        <v>5.5784612000000138</v>
+      </c>
+      <c r="K18" s="15">
+        <f>K17-SUM(D4,D8,D10)</f>
+        <v>13</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="15">
+        <v>15</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1">
+        <f>SUM(D15:D20)</f>
+        <v>13</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H22" s="29"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1">
+        <f>SUM(D3:D11,D15:D20)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="7">
+        <f>D23/15</f>
+        <v>3.8666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="35">
+        <f>J7/(13)</f>
+        <v>2.7892307692307696</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/docs/Milestone 3/M3 Burndown Chart.xlsx
+++ b/docs/Milestone 3/M3 Burndown Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjagu\Documents\GitHub\team-project-group-p07-07\docs\Milestone 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C283803-E64B-4341-9B4B-7AB784C74D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0129769-9854-46F7-A869-3227728705A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{599E0083-BA29-43DE-BF11-EE87BCF98BA8}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="2172" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{599E0083-BA29-43DE-BF11-EE87BCF98BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>User Story</t>
   </si>
@@ -339,13 +339,16 @@
   <si>
     <t>PBI2, PBI 6, PBI 8 [21]</t>
   </si>
+  <si>
+    <t>PBI7 [5]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -508,6 +511,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,19 +557,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,6 +1391,9 @@
                 <c:pt idx="14">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3225,18 +3231,18 @@
   <sheetData>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -3301,7 +3307,7 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="12">
@@ -3329,7 +3335,7 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="12">
         <v>2</v>
       </c>
@@ -3355,7 +3361,7 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="12">
         <v>3</v>
       </c>
@@ -3381,7 +3387,7 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="12">
         <v>4</v>
       </c>
@@ -3407,7 +3413,7 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="12">
         <v>5</v>
       </c>
@@ -3432,7 +3438,7 @@
         <f>SUM(D4:D9)</f>
         <v>13</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="30" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="10">
@@ -3462,7 +3468,7 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="10">
         <v>7</v>
       </c>
@@ -3488,7 +3494,7 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="10">
         <v>8</v>
       </c>
@@ -3515,7 +3521,7 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="10">
         <v>9</v>
       </c>
@@ -3542,7 +3548,7 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="10">
         <v>10</v>
       </c>
@@ -3569,7 +3575,7 @@
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="33" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="15">
@@ -3598,7 +3604,7 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="15">
         <v>12</v>
       </c>
@@ -3624,7 +3630,7 @@
         <f>SUM(D11:D16)</f>
         <v>18</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="15">
         <v>13</v>
       </c>
@@ -3650,7 +3656,7 @@
         <f>SUM(D4:D9,D11:D16)</f>
         <v>31</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="15">
         <v>14</v>
       </c>
@@ -3671,7 +3677,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="15">
         <v>15</v>
       </c>
@@ -3727,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7353570F-C033-40B8-938D-BA45B335540D}">
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3746,30 +3752,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="21">
         <v>3</v>
       </c>
       <c r="E3" s="12"/>
@@ -3790,16 +3796,16 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="21">
         <v>8</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="12"/>
       <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
@@ -3817,17 +3823,17 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="21">
         <v>2</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="12">
@@ -3846,17 +3852,17 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="12">
         <v>2</v>
       </c>
@@ -3873,17 +3879,17 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="21">
         <v>5</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="12">
         <v>3</v>
       </c>
@@ -3895,22 +3901,22 @@
         <f>K6-SUM(D6,D21)</f>
         <v>34</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="21">
         <v>5</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="12"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="12">
         <v>4</v>
       </c>
@@ -3926,22 +3932,22 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="21">
         <v>5</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="H9" s="22"/>
+      <c r="E9" s="12"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="12">
         <v>5</v>
       </c>
       <c r="J9" s="13">
-        <f t="shared" ref="J9:J19" si="0">J8-2.7892308</f>
+        <f t="shared" ref="J9:J18" si="0">J8-2.7892308</f>
         <v>30.681538400000008</v>
       </c>
       <c r="K9" s="12">
@@ -3952,17 +3958,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="21">
         <v>8</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="H10" s="23" t="s">
+      <c r="E10" s="12"/>
+      <c r="H10" s="30" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="10">
@@ -3980,17 +3986,17 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="21">
         <v>8</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="H11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="10">
         <v>7</v>
       </c>
@@ -4007,7 +4013,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="10">
         <v>8</v>
       </c>
@@ -4023,7 +4029,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H13" s="24"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="10">
         <v>9</v>
       </c>
@@ -4042,7 +4048,7 @@
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="10">
         <v>10</v>
       </c>
@@ -4067,7 +4073,7 @@
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="33" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="15">
@@ -4094,7 +4100,7 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="15">
         <v>12</v>
       </c>
@@ -4119,7 +4125,7 @@
       <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="15">
         <v>13</v>
       </c>
@@ -4144,7 +4150,7 @@
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="15">
         <v>14</v>
       </c>
@@ -4170,16 +4176,19 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="15">
         <v>15</v>
       </c>
       <c r="J19" s="16">
         <v>0</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="15">
+        <f>K18-D9</f>
+        <v>8</v>
+      </c>
       <c r="L19" s="17" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
@@ -4192,7 +4201,7 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="29"/>
+      <c r="H20" s="18"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
@@ -4203,12 +4212,12 @@
         <f>SUM(D15:D20)</f>
         <v>13</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="18"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H22" s="29"/>
-      <c r="J22" s="30"/>
+      <c r="H22" s="18"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
@@ -4232,7 +4241,7 @@
       <c r="C25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="24">
         <f>J7/(13)</f>
         <v>2.7892307692307696</v>
       </c>
